--- a/biology/Mycologie/Melanoleuca/Melanoleuca.xlsx
+++ b/biology/Mycologie/Melanoleuca/Melanoleuca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Melanoleuca (de leur nom vulgarisé, les mélanoleuques) regroupe des champignons basidiomycètes de la famille des Pluteaceae et autrefois de la famille des Tricholomataceae. 
 Le nom du genre, construit sur le grec melas, "noir" et leukos, "blanc", se réfère à la bichromie marquée de ses principales espèces.
@@ -513,7 +525,9 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricales
@@ -555,7 +569,9 @@
           <t>Liste des espèces de Melanoleuca</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Melanoleuca albifolia
 Melanoleuca arcuata
@@ -613,7 +629,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Champignons, Roger Phillips, éditions Solar,  (ISBN 2-263-00640-0)
 (en) Référence Index Fungorum : Melanoleuca   (+ liste espèces) (+ MycoBank)
